--- a/TestFramework/WebServiceTestSuite/Test_Case_1.xlsx
+++ b/TestFramework/WebServiceTestSuite/Test_Case_1.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Url</t>
   </si>
   <si>
-    <t>https://reqres.in/api/users</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
@@ -37,6 +34,24 @@
   </si>
   <si>
     <t>Test_Case_1</t>
+  </si>
+  <si>
+    <t>http://restapi.demoqa.com/utilities/weather/city/Hyderabad</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>30.51 Degree celsius</t>
+  </si>
+  <si>
+    <t>Test_field2</t>
+  </si>
+  <si>
+    <t>WeatherDescription</t>
+  </si>
+  <si>
+    <t>haze</t>
   </si>
 </sst>
 </file>
@@ -354,39 +369,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
